--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H2">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I2">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J2">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>41.68172874472938</v>
+        <v>84.05613989735734</v>
       </c>
       <c r="R2">
-        <v>41.68172874472938</v>
+        <v>756.505259076216</v>
       </c>
       <c r="S2">
-        <v>0.0002487039079899513</v>
+        <v>0.0004585260266251223</v>
       </c>
       <c r="T2">
-        <v>0.0002487039079899513</v>
+        <v>0.0005050982924541491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H3">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I3">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J3">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>46.68216078767497</v>
+        <v>89.95217690320999</v>
       </c>
       <c r="R3">
-        <v>46.68216078767497</v>
+        <v>809.5695921288899</v>
       </c>
       <c r="S3">
-        <v>0.0002785401702605271</v>
+        <v>0.000490688893304815</v>
       </c>
       <c r="T3">
-        <v>0.0002785401702605271</v>
+        <v>0.0005405279258817516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H4">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I4">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J4">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>24.01670943894853</v>
+        <v>45.16792668724133</v>
       </c>
       <c r="R4">
-        <v>24.01670943894853</v>
+        <v>406.511340185172</v>
       </c>
       <c r="S4">
-        <v>0.0001433013858687648</v>
+        <v>0.0002463909237336596</v>
       </c>
       <c r="T4">
-        <v>0.0001433013858687648</v>
+        <v>0.0002714167301910214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H5">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I5">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J5">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>28.57313068677029</v>
+        <v>51.60465323198568</v>
       </c>
       <c r="R5">
-        <v>28.57313068677029</v>
+        <v>464.4418790878711</v>
       </c>
       <c r="S5">
-        <v>0.000170488352554378</v>
+        <v>0.000281503250455278</v>
       </c>
       <c r="T5">
-        <v>0.000170488352554378</v>
+        <v>0.0003100953988845248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H6">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I6">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J6">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>56.3817641575757</v>
+        <v>102.9308941490835</v>
       </c>
       <c r="R6">
-        <v>56.3817641575757</v>
+        <v>617.585364894501</v>
       </c>
       <c r="S6">
-        <v>0.0003364151513780473</v>
+        <v>0.0005614877624499876</v>
       </c>
       <c r="T6">
-        <v>0.0003364151513780473</v>
+        <v>0.0004123452011871046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H7">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I7">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J7">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>81.91393328208204</v>
+        <v>97.46891993810399</v>
       </c>
       <c r="R7">
-        <v>81.91393328208204</v>
+        <v>877.220279442936</v>
       </c>
       <c r="S7">
-        <v>0.0004887588864379336</v>
+        <v>0.0005316927071982527</v>
       </c>
       <c r="T7">
-        <v>0.0004887588864379336</v>
+        <v>0.0005856964772377595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H8">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I8">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J8">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>91.74090229423523</v>
+        <v>104.30578348641</v>
       </c>
       <c r="R8">
-        <v>91.74090229423523</v>
+        <v>938.7520513776899</v>
       </c>
       <c r="S8">
-        <v>0.0005473938248299189</v>
+        <v>0.000568987780243612</v>
       </c>
       <c r="T8">
-        <v>0.0005473938248299189</v>
+        <v>0.0006267795927389978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H9">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I9">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J9">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>47.19821355504463</v>
+        <v>52.37534147326799</v>
       </c>
       <c r="R9">
-        <v>47.19821355504463</v>
+        <v>471.378073259412</v>
       </c>
       <c r="S9">
-        <v>0.0002816193213379663</v>
+        <v>0.0002857073528263053</v>
       </c>
       <c r="T9">
-        <v>0.0002816193213379663</v>
+        <v>0.0003147265098915439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H10">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I10">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J10">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>56.15260190071344</v>
+        <v>59.83917201579901</v>
       </c>
       <c r="R10">
-        <v>56.15260190071344</v>
+        <v>538.5525481421911</v>
       </c>
       <c r="S10">
-        <v>0.0003350478004892565</v>
+        <v>0.000326422529210197</v>
       </c>
       <c r="T10">
-        <v>0.0003350478004892565</v>
+        <v>0.0003595771069663456</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H11">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I11">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J11">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>110.8027955321728</v>
+        <v>119.3555056564035</v>
       </c>
       <c r="R11">
-        <v>110.8027955321728</v>
+        <v>716.133033938421</v>
       </c>
       <c r="S11">
-        <v>0.0006611311261543457</v>
+        <v>0.000651083975915287</v>
       </c>
       <c r="T11">
-        <v>0.0006611311261543457</v>
+        <v>0.0004781428394219047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.871802383352</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H12">
-        <v>102.871802383352</v>
+        <v>338.642536</v>
       </c>
       <c r="I12">
-        <v>0.3595951364532579</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J12">
-        <v>0.3595951364532579</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>12729.67860371076</v>
+        <v>15602.2871936268</v>
       </c>
       <c r="R12">
-        <v>12729.67860371076</v>
+        <v>140420.5847426412</v>
       </c>
       <c r="S12">
-        <v>0.07595464275457293</v>
+        <v>0.08511043645227687</v>
       </c>
       <c r="T12">
-        <v>0.07595464275457293</v>
+        <v>0.09375506214660111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.871802383352</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H13">
-        <v>102.871802383352</v>
+        <v>338.642536</v>
       </c>
       <c r="I13">
-        <v>0.3595951364532579</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J13">
-        <v>0.3595951364532579</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>14256.81998443968</v>
+        <v>16696.69460731362</v>
       </c>
       <c r="R13">
-        <v>14256.81998443968</v>
+        <v>150270.2514658226</v>
       </c>
       <c r="S13">
-        <v>0.08506669354705541</v>
+        <v>0.09108042607492277</v>
       </c>
       <c r="T13">
-        <v>0.08506669354705541</v>
+        <v>0.1003314207157359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.871802383352</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H14">
-        <v>102.871802383352</v>
+        <v>338.642536</v>
       </c>
       <c r="I14">
-        <v>0.3595951364532579</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J14">
-        <v>0.3595951364532579</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>7334.748377373386</v>
+        <v>8383.95582970585</v>
       </c>
       <c r="R14">
-        <v>7334.748377373386</v>
+        <v>75455.60246735266</v>
       </c>
       <c r="S14">
-        <v>0.04376451362532273</v>
+        <v>0.04573445745533711</v>
       </c>
       <c r="T14">
-        <v>0.04376451362532273</v>
+        <v>0.05037968408692736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.871802383352</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H15">
-        <v>102.871802383352</v>
+        <v>338.642536</v>
       </c>
       <c r="I15">
-        <v>0.3595951364532579</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J15">
-        <v>0.3595951364532579</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>8726.288023512081</v>
+        <v>9578.724662304832</v>
       </c>
       <c r="R15">
-        <v>8726.288023512081</v>
+        <v>86208.5219607435</v>
       </c>
       <c r="S15">
-        <v>0.0520674645474677</v>
+        <v>0.05225191835963414</v>
       </c>
       <c r="T15">
-        <v>0.0520674645474677</v>
+        <v>0.05755912032989664</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.871802383352</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H16">
-        <v>102.871802383352</v>
+        <v>338.642536</v>
       </c>
       <c r="I16">
-        <v>0.3595951364532579</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J16">
-        <v>0.3595951364532579</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>17219.09715481542</v>
+        <v>19105.7711378594</v>
       </c>
       <c r="R16">
-        <v>17219.09715481542</v>
+        <v>114634.6268271564</v>
       </c>
       <c r="S16">
-        <v>0.1027418219788391</v>
+        <v>0.1042219323436601</v>
       </c>
       <c r="T16">
-        <v>0.1027418219788391</v>
+        <v>0.07653846892911263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>182.206123839698</v>
+        <v>183.728312</v>
       </c>
       <c r="H17">
-        <v>182.206123839698</v>
+        <v>551.184936</v>
       </c>
       <c r="I17">
-        <v>0.6369134636194411</v>
+        <v>0.6158940490479994</v>
       </c>
       <c r="J17">
-        <v>0.6369134636194411</v>
+        <v>0.6161619334718688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>22546.75569369275</v>
+        <v>25394.75923447729</v>
       </c>
       <c r="R17">
-        <v>22546.75569369275</v>
+        <v>228552.8331102956</v>
       </c>
       <c r="S17">
-        <v>0.1345305586497569</v>
+        <v>0.1385283462112991</v>
       </c>
       <c r="T17">
-        <v>0.1345305586497569</v>
+        <v>0.1525986030560271</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>182.206123839698</v>
+        <v>183.728312</v>
       </c>
       <c r="H18">
-        <v>182.206123839698</v>
+        <v>551.184936</v>
       </c>
       <c r="I18">
-        <v>0.6369134636194411</v>
+        <v>0.6158940490479994</v>
       </c>
       <c r="J18">
-        <v>0.6369134636194411</v>
+        <v>0.6161619334718688</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>25251.62238302035</v>
+        <v>27176.05017151095</v>
       </c>
       <c r="R18">
-        <v>25251.62238302035</v>
+        <v>244584.4515435986</v>
       </c>
       <c r="S18">
-        <v>0.1506697864717958</v>
+        <v>0.1482452836845016</v>
       </c>
       <c r="T18">
-        <v>0.1506697864717958</v>
+        <v>0.1633024851490953</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>182.206123839698</v>
+        <v>183.728312</v>
       </c>
       <c r="H19">
-        <v>182.206123839698</v>
+        <v>551.184936</v>
       </c>
       <c r="I19">
-        <v>0.6369134636194411</v>
+        <v>0.6158940490479994</v>
       </c>
       <c r="J19">
-        <v>0.6369134636194411</v>
+        <v>0.6161619334718688</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>12991.27691182553</v>
+        <v>13645.98261047527</v>
       </c>
       <c r="R19">
-        <v>12991.27691182553</v>
+        <v>122813.8434942775</v>
       </c>
       <c r="S19">
-        <v>0.07751553102650978</v>
+        <v>0.07443879999030813</v>
       </c>
       <c r="T19">
-        <v>0.07751553102650978</v>
+        <v>0.08199951275215255</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>182.206123839698</v>
+        <v>183.728312</v>
       </c>
       <c r="H20">
-        <v>182.206123839698</v>
+        <v>551.184936</v>
       </c>
       <c r="I20">
-        <v>0.6369134636194411</v>
+        <v>0.6158940490479994</v>
       </c>
       <c r="J20">
-        <v>0.6369134636194411</v>
+        <v>0.6161619334718688</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>15455.96635264385</v>
+        <v>15590.62485863888</v>
       </c>
       <c r="R20">
-        <v>15455.96635264385</v>
+        <v>140315.6237277499</v>
       </c>
       <c r="S20">
-        <v>0.09222168440290002</v>
+        <v>0.08504681844495807</v>
       </c>
       <c r="T20">
-        <v>0.09222168440290002</v>
+        <v>0.09368498248917667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>182.206123839698</v>
+        <v>183.728312</v>
       </c>
       <c r="H21">
-        <v>182.206123839698</v>
+        <v>551.184936</v>
       </c>
       <c r="I21">
-        <v>0.6369134636194411</v>
+        <v>0.6158940490479994</v>
       </c>
       <c r="J21">
-        <v>0.6369134636194411</v>
+        <v>0.6161619334718688</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>30498.39582771641</v>
+        <v>31097.1367219258</v>
       </c>
       <c r="R21">
-        <v>30498.39582771641</v>
+        <v>186582.8203315548</v>
       </c>
       <c r="S21">
-        <v>0.1819759030684787</v>
+        <v>0.1696348007169326</v>
       </c>
       <c r="T21">
-        <v>0.1819759030684787</v>
+        <v>0.1245763500254172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.3890845</v>
+      </c>
+      <c r="H22">
+        <v>0.778169</v>
+      </c>
+      <c r="I22">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J22">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>53.77890370737734</v>
+      </c>
+      <c r="R22">
+        <v>322.673422244264</v>
+      </c>
+      <c r="S22">
+        <v>0.0002933637811980235</v>
+      </c>
+      <c r="T22">
+        <v>0.0002154403986496204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.3890845</v>
+      </c>
+      <c r="H23">
+        <v>0.778169</v>
+      </c>
+      <c r="I23">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J23">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>57.55117313088499</v>
+      </c>
+      <c r="R23">
+        <v>345.30703878531</v>
+      </c>
+      <c r="S23">
+        <v>0.0003139415011865045</v>
+      </c>
+      <c r="T23">
+        <v>0.0002305522579920186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.3890845</v>
+      </c>
+      <c r="H24">
+        <v>0.778169</v>
+      </c>
+      <c r="I24">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J24">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>28.89832417883133</v>
+      </c>
+      <c r="R24">
+        <v>173.389945072988</v>
+      </c>
+      <c r="S24">
+        <v>0.0001576402839581362</v>
+      </c>
+      <c r="T24">
+        <v>0.0001157678206917284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.3890845</v>
+      </c>
+      <c r="H25">
+        <v>0.778169</v>
+      </c>
+      <c r="I25">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J25">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>33.01652538891818</v>
+      </c>
+      <c r="R25">
+        <v>198.099152333509</v>
+      </c>
+      <c r="S25">
+        <v>0.0001801050609513426</v>
+      </c>
+      <c r="T25">
+        <v>0.0001322654963462574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.3890845</v>
+      </c>
+      <c r="H26">
+        <v>0.778169</v>
+      </c>
+      <c r="I26">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J26">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>65.85492328956975</v>
+      </c>
+      <c r="R26">
+        <v>263.419693158279</v>
+      </c>
+      <c r="S26">
+        <v>0.0003592384369130184</v>
+      </c>
+      <c r="T26">
+        <v>0.0001758782713229464</v>
       </c>
     </row>
   </sheetData>
